--- a/software_components/app_server/ampa_members_manager_project/ampa_manager/static/templates/plantilla_importar_inscripciones_extraescolares.xlsx
+++ b/software_components/app_server/ampa_members_manager_project/ampa_manager/static/templates/plantilla_importar_inscripciones_extraescolares.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\107596\Proyectos\ampa-manager\software_components\app_server\ampa_members_manager_project\ampa_manager\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1658DE3F-978F-4BAD-8C72-713D12BA313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9BCB53-D54E-43B9-8876-909BABA9B24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="199"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="199" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inscripciones" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Nombre y apellidos</t>
   </si>
@@ -114,12 +114,18 @@
   </si>
   <si>
     <t>Correo de la ikastola*</t>
+  </si>
+  <si>
+    <t>lopez.arana@abendanogurasoak.com</t>
+  </si>
+  <si>
+    <t>Lopez Arana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -315,18 +321,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,30 +332,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -676,16 +683,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="35" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="12"/>
     <col min="3" max="3" width="17.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="9" customWidth="1"/>
@@ -693,7 +701,7 @@
     <col min="7" max="7" width="12.42578125" style="7" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="15" customWidth="1"/>
     <col min="11" max="11" width="15" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="11.42578125" style="9"/>
     <col min="14" max="14" width="11.42578125" style="10"/>
@@ -701,74 +709,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="17" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="30"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -793,29 +807,34 @@
       <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="10"/>
+      <c r="M3" s="5">
+        <v>90</v>
+      </c>
+      <c r="N3" s="10">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J4" s="8"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G5" s="12"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J6" s="8"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J7" s="8"/>
@@ -828,9 +847,10 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{55AA2556-6488-47E3-8787-3E95138AA6C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/software_components/app_server/ampa_members_manager_project/ampa_manager/static/templates/plantilla_importar_inscripciones_extraescolares.xlsx
+++ b/software_components/app_server/ampa_members_manager_project/ampa_manager/static/templates/plantilla_importar_inscripciones_extraescolares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\107596\Proyectos\ampa-manager\software_components\app_server\ampa_members_manager_project\ampa_manager\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9BCB53-D54E-43B9-8876-909BABA9B24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9B6C38-4695-4293-8B3D-2E0B99203865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="199" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Nombre y apellidos</t>
   </si>
@@ -90,12 +90,6 @@
     <t>Nombre*</t>
   </si>
   <si>
-    <t>Período*</t>
-  </si>
-  <si>
-    <t>Horario*</t>
-  </si>
-  <si>
     <t>ES7920808516426731166994</t>
   </si>
   <si>
@@ -105,14 +99,6 @@
     <t>Apellidos</t>
   </si>
   <si>
-    <t>Precio
-SOCIOS</t>
-  </si>
-  <si>
-    <t>Precio
-NO SOCIOS</t>
-  </si>
-  <si>
     <t>Correo de la ikastola*</t>
   </si>
   <si>
@@ -120,6 +106,12 @@
   </si>
   <si>
     <t>Lopez Arana</t>
+  </si>
+  <si>
+    <t>Período</t>
+  </si>
+  <si>
+    <t>Horario</t>
   </si>
 </sst>
 </file>
@@ -181,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -283,6 +275,37 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -325,13 +348,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -347,28 +364,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -684,119 +707,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="12"/>
-    <col min="3" max="3" width="17.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="30" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="30" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="12"/>
     <col min="8" max="8" width="11.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" style="11" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="15" customWidth="1"/>
     <col min="11" max="11" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.42578125" style="9"/>
-    <col min="14" max="14" width="11.42578125" style="10"/>
-    <col min="15" max="16384" width="11.42578125" style="12"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="25"/>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="20" t="s">
+    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="24" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>647551930</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="24" t="s">
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>647551930</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="H3" s="2">
         <v>2013</v>
@@ -807,47 +821,40 @@
       <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="5">
-        <v>90</v>
-      </c>
-      <c r="N3" s="10">
-        <v>112</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J4" s="8"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
+      <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G5" s="12"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F5" s="12"/>
       <c r="J5" s="8"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J6" s="8"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J7" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="J1:M1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{55AA2556-6488-47E3-8787-3E95138AA6C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
